--- a/modules/prototype-kit/codebase/testfiles/Test Data.xlsx
+++ b/modules/prototype-kit/codebase/testfiles/Test Data.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1405" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1873" uniqueCount="41">
   <si>
     <t xml:space="preserve">5) Contract Start Date:</t>
   </si>
@@ -34,6 +34,9 @@
     <t xml:space="preserve">13) How long has the household been on the waiting list of the local authority district where the new letting is located?:</t>
   </si>
   <si>
+    <t xml:space="preserve">12) How long has the household continuously lived in the local authority area where the new letting is located?:</t>
+  </si>
+  <si>
     <t xml:space="preserve">Not homeless</t>
   </si>
   <si>
@@ -41,6 +44,9 @@
   </si>
   <si>
     <t xml:space="preserve">Don't know</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Just moved to the local authority area</t>
   </si>
   <si>
     <t xml:space="preserve">Residential care home</t>
@@ -52,6 +58,9 @@
     <t xml:space="preserve">Private sector tenancy</t>
   </si>
   <si>
+    <t xml:space="preserve">5 years or more</t>
+  </si>
+  <si>
     <t xml:space="preserve">Other homelessness (i.e. not found statutorily homeless by a housing authority but considered to be homeless by the letting landlord.</t>
   </si>
   <si>
@@ -59,6 +68,9 @@
   </si>
   <si>
     <t xml:space="preserve">1 year but under 2 years</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 years but under 5 years</t>
   </si>
   <si>
     <t xml:space="preserve">Assessed as homeless by a local authority and owed a relief duty</t>
@@ -76,19 +88,16 @@
     <t xml:space="preserve">Lifetime Private Registered Provider General Needs tenancy</t>
   </si>
   <si>
-    <t xml:space="preserve">Just moved to the local authority area</t>
-  </si>
-  <si>
     <t xml:space="preserve">2 years but under 3 years</t>
   </si>
   <si>
     <t xml:space="preserve">Sheltered accommodation</t>
   </si>
   <si>
-    <t xml:space="preserve">5 years or more</t>
+    <t xml:space="preserve">Rough sleeping</t>
   </si>
   <si>
-    <t xml:space="preserve">Rough sleeping</t>
+    <t xml:space="preserve">3 years but under 4 years</t>
   </si>
   <si>
     <t xml:space="preserve">Owner occupation (private)</t>
@@ -116,9 +125,6 @@
   </si>
   <si>
     <t xml:space="preserve">Assessed as threatened with homelessness within 56 days by a local authority and owed prevention duty</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3 years but under 4 years</t>
   </si>
   <si>
     <t xml:space="preserve">Tied housing or rented with job</t>
@@ -153,6 +159,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -246,18 +253,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D468"/>
+  <dimension ref="A1:E468"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D:D"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E:E"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.32"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="139.44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="90.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="124.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="116.19"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -273,19 +281,25 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="n">
         <v>44229</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -293,13 +307,16 @@
         <v>44232</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -307,13 +324,16 @@
         <v>44228</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -321,13 +341,16 @@
         <v>44228</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -335,13 +358,16 @@
         <v>44228</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -349,13 +375,16 @@
         <v>44229</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>12</v>
+        <v>15</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -363,13 +392,16 @@
         <v>44228</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -377,13 +409,16 @@
         <v>44228</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -391,12 +426,15 @@
         <v>44228</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="3" t="s">
         <v>12</v>
       </c>
     </row>
@@ -405,13 +443,16 @@
         <v>44228</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -419,13 +460,16 @@
         <v>44228</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -433,13 +477,16 @@
         <v>44231</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -447,12 +494,15 @@
         <v>44229</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="3" t="s">
         <v>8</v>
       </c>
     </row>
@@ -461,13 +511,16 @@
         <v>44230</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>18</v>
+        <v>8</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -475,13 +528,16 @@
         <v>44229</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>19</v>
+        <v>22</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -489,13 +545,16 @@
         <v>44228</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -503,13 +562,16 @@
         <v>44230</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -517,13 +579,16 @@
         <v>44229</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -531,13 +596,16 @@
         <v>44229</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>21</v>
+        <v>12</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -545,13 +613,16 @@
         <v>44230</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>18</v>
+        <v>8</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -559,13 +630,16 @@
         <v>44231</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -573,13 +647,16 @@
         <v>44228</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -587,13 +664,16 @@
         <v>44231</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -601,13 +681,16 @@
         <v>44229</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -615,13 +698,16 @@
         <v>44228</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -629,13 +715,16 @@
         <v>44229</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>18</v>
+        <v>8</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -643,13 +732,16 @@
         <v>44229</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -657,13 +749,16 @@
         <v>44232</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -671,13 +766,16 @@
         <v>44230</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -685,13 +783,16 @@
         <v>44229</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -699,13 +800,16 @@
         <v>44228</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -713,12 +817,15 @@
         <v>44230</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D33" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E33" s="3" t="s">
         <v>8</v>
       </c>
     </row>
@@ -727,13 +834,16 @@
         <v>44229</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>19</v>
+        <v>22</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -741,12 +851,15 @@
         <v>44232</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D35" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E35" s="3" t="s">
         <v>8</v>
       </c>
     </row>
@@ -755,13 +868,16 @@
         <v>44229</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -769,13 +885,16 @@
         <v>44229</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -783,13 +902,16 @@
         <v>44231</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -797,13 +919,16 @@
         <v>44230</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -811,13 +936,16 @@
         <v>44232</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -825,13 +953,16 @@
         <v>44230</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>21</v>
+        <v>12</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -839,13 +970,16 @@
         <v>44230</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -853,13 +987,16 @@
         <v>44229</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -867,13 +1004,16 @@
         <v>44237</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -881,13 +1021,16 @@
         <v>44231</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -895,13 +1038,16 @@
         <v>44231</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -909,13 +1055,16 @@
         <v>44230</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>12</v>
+        <v>15</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -923,13 +1072,16 @@
         <v>44232</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -937,13 +1089,16 @@
         <v>44230</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -951,13 +1106,16 @@
         <v>44232</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -965,13 +1123,16 @@
         <v>44230</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -979,13 +1140,16 @@
         <v>44231</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -993,13 +1157,16 @@
         <v>44231</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1007,13 +1174,16 @@
         <v>44231</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1021,13 +1191,16 @@
         <v>44231</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1035,13 +1208,16 @@
         <v>44231</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>21</v>
+        <v>12</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1049,13 +1225,16 @@
         <v>44230</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1063,13 +1242,16 @@
         <v>44230</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1077,13 +1259,16 @@
         <v>44232</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1091,13 +1276,16 @@
         <v>44232</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1105,13 +1293,16 @@
         <v>44231</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1119,13 +1310,16 @@
         <v>44230</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1133,13 +1327,16 @@
         <v>44230</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1147,13 +1344,16 @@
         <v>44230</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1161,13 +1361,16 @@
         <v>44231</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E65" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1175,13 +1378,16 @@
         <v>44230</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>21</v>
+        <v>12</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1189,13 +1395,16 @@
         <v>44230</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E67" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1203,13 +1412,16 @@
         <v>44232</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E68" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1217,13 +1429,16 @@
         <v>44232</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E69" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1231,13 +1446,16 @@
         <v>44235</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
+      </c>
+      <c r="E70" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1245,13 +1463,16 @@
         <v>44231</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E71" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1259,13 +1480,16 @@
         <v>44231</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>12</v>
+        <v>15</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1273,13 +1497,16 @@
         <v>44232</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E73" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1287,13 +1514,16 @@
         <v>44232</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E74" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1301,13 +1531,16 @@
         <v>44232</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E75" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1315,13 +1548,16 @@
         <v>44235</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E76" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1329,13 +1565,16 @@
         <v>44236</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E77" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1343,13 +1582,16 @@
         <v>44232</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
+      </c>
+      <c r="E78" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1357,13 +1599,16 @@
         <v>44232</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E79" s="3" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1371,13 +1616,16 @@
         <v>44235</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
+      </c>
+      <c r="E80" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1385,13 +1633,16 @@
         <v>44235</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1399,13 +1650,16 @@
         <v>44232</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E82" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1413,13 +1667,16 @@
         <v>44232</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1427,13 +1684,16 @@
         <v>44231</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>21</v>
+        <v>12</v>
+      </c>
+      <c r="E84" s="3" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1441,13 +1701,16 @@
         <v>44231</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E85" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1455,13 +1718,16 @@
         <v>44231</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
+      </c>
+      <c r="E86" s="3" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1469,13 +1735,16 @@
         <v>44235</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E87" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1483,13 +1752,16 @@
         <v>44232</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E88" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1497,13 +1769,16 @@
         <v>44235</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1511,13 +1786,16 @@
         <v>44235</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E90" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1525,13 +1803,16 @@
         <v>44232</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1539,13 +1820,16 @@
         <v>44232</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E92" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1553,13 +1837,16 @@
         <v>44235</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
+      </c>
+      <c r="E93" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1567,13 +1854,16 @@
         <v>44238</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1581,13 +1871,16 @@
         <v>44232</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E95" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1595,13 +1888,16 @@
         <v>44232</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
+      </c>
+      <c r="E96" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1609,12 +1905,15 @@
         <v>44232</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D97" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E97" s="3" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1623,13 +1922,16 @@
         <v>44232</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E98" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1637,13 +1939,16 @@
         <v>44235</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E99" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1651,12 +1956,15 @@
         <v>44232</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D100" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E100" s="3" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1665,13 +1973,16 @@
         <v>44232</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E101" s="3" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1679,13 +1990,16 @@
         <v>44232</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
+      </c>
+      <c r="E102" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1693,13 +2007,16 @@
         <v>44232</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E103" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1707,13 +2024,16 @@
         <v>44232</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D104" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E104" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1721,13 +2041,16 @@
         <v>44232</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E105" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1735,13 +2058,16 @@
         <v>44232</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>19</v>
+        <v>22</v>
+      </c>
+      <c r="E106" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1749,13 +2075,16 @@
         <v>44232</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>12</v>
+        <v>15</v>
+      </c>
+      <c r="E107" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1763,13 +2092,16 @@
         <v>44232</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E108" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1777,13 +2109,16 @@
         <v>44236</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D109" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E109" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1791,13 +2126,16 @@
         <v>44237</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D110" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
+      </c>
+      <c r="E110" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1805,13 +2143,16 @@
         <v>44232</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
+      </c>
+      <c r="E111" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1819,13 +2160,16 @@
         <v>44232</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D112" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E112" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1833,13 +2177,16 @@
         <v>44238</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D113" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E113" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1847,13 +2194,16 @@
         <v>44232</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
+      </c>
+      <c r="E114" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1861,13 +2211,16 @@
         <v>44236</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E115" s="3" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1875,13 +2228,16 @@
         <v>44232</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E116" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1889,13 +2245,16 @@
         <v>44235</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E117" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1903,13 +2262,16 @@
         <v>44235</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D118" s="3" t="s">
-        <v>19</v>
+        <v>22</v>
+      </c>
+      <c r="E118" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1917,13 +2279,16 @@
         <v>44235</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D119" s="3" t="s">
-        <v>19</v>
+        <v>22</v>
+      </c>
+      <c r="E119" s="3" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1931,13 +2296,16 @@
         <v>44235</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D120" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E120" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1945,13 +2313,16 @@
         <v>44238</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D121" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E121" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1959,13 +2330,16 @@
         <v>44238</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D122" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
+      </c>
+      <c r="E122" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1973,13 +2347,16 @@
         <v>44237</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D123" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E123" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1987,13 +2364,16 @@
         <v>44236</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D124" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E124" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2001,13 +2381,16 @@
         <v>44236</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D125" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E125" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2015,13 +2398,16 @@
         <v>44236</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D126" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E126" s="3" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2029,13 +2415,16 @@
         <v>44238</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D127" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E127" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2043,13 +2432,16 @@
         <v>44237</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D128" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E128" s="3" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2057,13 +2449,16 @@
         <v>44238</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D129" s="3" t="s">
-        <v>19</v>
+        <v>22</v>
+      </c>
+      <c r="E129" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2071,13 +2466,16 @@
         <v>44239</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D130" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
+      </c>
+      <c r="E130" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2085,13 +2483,16 @@
         <v>44237</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D131" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E131" s="3" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2099,13 +2500,16 @@
         <v>44236</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D132" s="3" t="s">
-        <v>21</v>
+        <v>12</v>
+      </c>
+      <c r="E132" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2113,13 +2517,16 @@
         <v>44237</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D133" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E133" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2127,13 +2534,16 @@
         <v>44243</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D134" s="3" t="s">
-        <v>18</v>
+        <v>8</v>
+      </c>
+      <c r="E134" s="3" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2141,12 +2551,15 @@
         <v>44242</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D135" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E135" s="3" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2155,13 +2568,16 @@
         <v>44239</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D136" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
+      </c>
+      <c r="E136" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2169,13 +2585,16 @@
         <v>44236</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D137" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E137" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2183,13 +2602,16 @@
         <v>44238</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C138" s="3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D138" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E138" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2197,13 +2619,16 @@
         <v>44242</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C139" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D139" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E139" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2211,13 +2636,16 @@
         <v>44238</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C140" s="3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D140" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E140" s="3" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2225,13 +2653,16 @@
         <v>44239</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D141" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
+      </c>
+      <c r="E141" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2239,13 +2670,16 @@
         <v>44239</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D142" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
+      </c>
+      <c r="E142" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2253,13 +2687,16 @@
         <v>44239</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C143" s="3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D143" s="3" t="s">
-        <v>19</v>
+        <v>22</v>
+      </c>
+      <c r="E143" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2267,13 +2704,16 @@
         <v>44238</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D144" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
+      </c>
+      <c r="E144" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2281,13 +2721,16 @@
         <v>44239</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D145" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E145" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2295,13 +2738,16 @@
         <v>44243</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D146" s="3" t="s">
-        <v>18</v>
+        <v>8</v>
+      </c>
+      <c r="E146" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2309,13 +2755,16 @@
         <v>44238</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D147" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E147" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2323,13 +2772,16 @@
         <v>44239</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C148" s="3" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D148" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E148" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2337,13 +2789,16 @@
         <v>44237</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C149" s="3" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D149" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E149" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2351,13 +2806,16 @@
         <v>44238</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C150" s="3" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D150" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
+      </c>
+      <c r="E150" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2365,13 +2823,16 @@
         <v>44239</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C151" s="3" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D151" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E151" s="3" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2379,13 +2840,16 @@
         <v>44239</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C152" s="3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D152" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E152" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2393,13 +2857,16 @@
         <v>44238</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C153" s="3" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D153" s="3" t="s">
-        <v>18</v>
+        <v>8</v>
+      </c>
+      <c r="E153" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2407,12 +2874,15 @@
         <v>44238</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C154" s="3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D154" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E154" s="3" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2421,13 +2891,16 @@
         <v>44238</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C155" s="3" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D155" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E155" s="3" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2435,13 +2908,16 @@
         <v>44237</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C156" s="3" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D156" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
+      </c>
+      <c r="E156" s="3" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2449,13 +2925,16 @@
         <v>44238</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C157" s="3" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D157" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E157" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2463,13 +2942,16 @@
         <v>44238</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C158" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D158" s="3" t="s">
-        <v>19</v>
+        <v>22</v>
+      </c>
+      <c r="E158" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2477,13 +2959,16 @@
         <v>44239</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C159" s="3" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D159" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E159" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2491,13 +2976,16 @@
         <v>44237</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C160" s="3" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D160" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E160" s="3" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2505,13 +2993,16 @@
         <v>44238</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C161" s="3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D161" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
+      </c>
+      <c r="E161" s="3" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2519,13 +3010,16 @@
         <v>44239</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C162" s="3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D162" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E162" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2533,13 +3027,16 @@
         <v>44238</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C163" s="3" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D163" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E163" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2547,13 +3044,16 @@
         <v>44249</v>
       </c>
       <c r="B164" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C164" s="3" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D164" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
+      </c>
+      <c r="E164" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2561,13 +3061,16 @@
         <v>44238</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C165" s="3" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D165" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E165" s="3" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2575,13 +3078,16 @@
         <v>44238</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C166" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D166" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E166" s="3" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2589,12 +3095,15 @@
         <v>44238</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C167" s="3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D167" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E167" s="3" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2603,13 +3112,16 @@
         <v>44238</v>
       </c>
       <c r="B168" s="3" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C168" s="3" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D168" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
+      </c>
+      <c r="E168" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2617,13 +3129,16 @@
         <v>44239</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C169" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D169" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E169" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2631,13 +3146,16 @@
         <v>44242</v>
       </c>
       <c r="B170" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C170" s="3" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D170" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
+      </c>
+      <c r="E170" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2645,13 +3163,16 @@
         <v>44244</v>
       </c>
       <c r="B171" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C171" s="3" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D171" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E171" s="3" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2659,13 +3180,16 @@
         <v>44239</v>
       </c>
       <c r="B172" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C172" s="3" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D172" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E172" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2673,13 +3197,16 @@
         <v>44239</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C173" s="3" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D173" s="3" t="s">
-        <v>32</v>
+        <v>25</v>
+      </c>
+      <c r="E173" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2687,13 +3214,16 @@
         <v>44242</v>
       </c>
       <c r="B174" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C174" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D174" s="3" t="s">
-        <v>21</v>
+        <v>12</v>
+      </c>
+      <c r="E174" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2701,13 +3231,16 @@
         <v>44239</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C175" s="3" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D175" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E175" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2715,13 +3248,16 @@
         <v>44239</v>
       </c>
       <c r="B176" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C176" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D176" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
+      </c>
+      <c r="E176" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2729,13 +3265,16 @@
         <v>44239</v>
       </c>
       <c r="B177" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C177" s="3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D177" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E177" s="3" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2743,13 +3282,16 @@
         <v>44239</v>
       </c>
       <c r="B178" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C178" s="3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D178" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
+      </c>
+      <c r="E178" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2757,13 +3299,16 @@
         <v>44239</v>
       </c>
       <c r="B179" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C179" s="3" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D179" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E179" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2771,13 +3316,16 @@
         <v>44239</v>
       </c>
       <c r="B180" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C180" s="3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D180" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E180" s="3" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2785,13 +3333,16 @@
         <v>44239</v>
       </c>
       <c r="B181" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C181" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D181" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E181" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2799,13 +3350,16 @@
         <v>44239</v>
       </c>
       <c r="B182" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C182" s="3" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D182" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E182" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2813,13 +3367,16 @@
         <v>44239</v>
       </c>
       <c r="B183" s="3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C183" s="3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D183" s="3" t="s">
-        <v>12</v>
+        <v>15</v>
+      </c>
+      <c r="E183" s="3" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2827,13 +3384,16 @@
         <v>44245</v>
       </c>
       <c r="B184" s="3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C184" s="3" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D184" s="3" t="s">
-        <v>19</v>
+        <v>22</v>
+      </c>
+      <c r="E184" s="3" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2841,13 +3401,16 @@
         <v>44243</v>
       </c>
       <c r="B185" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C185" s="3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D185" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E185" s="3" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2855,13 +3418,16 @@
         <v>44239</v>
       </c>
       <c r="B186" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C186" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D186" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E186" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2869,13 +3435,16 @@
         <v>44242</v>
       </c>
       <c r="B187" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C187" s="3" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D187" s="3" t="s">
-        <v>12</v>
+        <v>15</v>
+      </c>
+      <c r="E187" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2883,13 +3452,16 @@
         <v>44239</v>
       </c>
       <c r="B188" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C188" s="3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D188" s="3" t="s">
-        <v>12</v>
+        <v>15</v>
+      </c>
+      <c r="E188" s="3" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2897,13 +3469,16 @@
         <v>44243</v>
       </c>
       <c r="B189" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C189" s="3" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D189" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
+      </c>
+      <c r="E189" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2911,13 +3486,16 @@
         <v>44239</v>
       </c>
       <c r="B190" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C190" s="3" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D190" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E190" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2925,13 +3503,16 @@
         <v>44239</v>
       </c>
       <c r="B191" s="3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C191" s="3" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D191" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E191" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2939,13 +3520,16 @@
         <v>44243</v>
       </c>
       <c r="B192" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C192" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D192" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
+      </c>
+      <c r="E192" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2953,13 +3537,16 @@
         <v>44242</v>
       </c>
       <c r="B193" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C193" s="3" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D193" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E193" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2967,13 +3554,16 @@
         <v>44239</v>
       </c>
       <c r="B194" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C194" s="3" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D194" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E194" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2981,13 +3571,16 @@
         <v>44243</v>
       </c>
       <c r="B195" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C195" s="3" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D195" s="3" t="s">
-        <v>19</v>
+        <v>22</v>
+      </c>
+      <c r="E195" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2995,13 +3588,16 @@
         <v>44242</v>
       </c>
       <c r="B196" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C196" s="3" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D196" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E196" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3009,13 +3605,16 @@
         <v>44244</v>
       </c>
       <c r="B197" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C197" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D197" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E197" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3023,13 +3622,16 @@
         <v>44243</v>
       </c>
       <c r="B198" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C198" s="3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D198" s="3" t="s">
-        <v>18</v>
+        <v>8</v>
+      </c>
+      <c r="E198" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3037,13 +3639,16 @@
         <v>44243</v>
       </c>
       <c r="B199" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C199" s="3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D199" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
+      </c>
+      <c r="E199" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3051,12 +3656,15 @@
         <v>44242</v>
       </c>
       <c r="B200" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C200" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D200" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E200" s="3" t="s">
         <v>8</v>
       </c>
     </row>
@@ -3065,13 +3673,16 @@
         <v>44242</v>
       </c>
       <c r="B201" s="3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C201" s="3" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D201" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
+      </c>
+      <c r="E201" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3079,13 +3690,16 @@
         <v>44243</v>
       </c>
       <c r="B202" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C202" s="3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D202" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E202" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3093,13 +3707,16 @@
         <v>44242</v>
       </c>
       <c r="B203" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C203" s="3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D203" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
+      </c>
+      <c r="E203" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3107,13 +3724,16 @@
         <v>44249</v>
       </c>
       <c r="B204" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C204" s="3" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D204" s="3" t="s">
-        <v>18</v>
+        <v>8</v>
+      </c>
+      <c r="E204" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3121,13 +3741,16 @@
         <v>44242</v>
       </c>
       <c r="B205" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C205" s="3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D205" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E205" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3135,13 +3758,16 @@
         <v>44242</v>
       </c>
       <c r="B206" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C206" s="3" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D206" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E206" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3149,13 +3775,16 @@
         <v>44244</v>
       </c>
       <c r="B207" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C207" s="3" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D207" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E207" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3163,12 +3792,15 @@
         <v>44243</v>
       </c>
       <c r="B208" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C208" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D208" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E208" s="3" t="s">
         <v>12</v>
       </c>
     </row>
@@ -3177,13 +3809,16 @@
         <v>44243</v>
       </c>
       <c r="B209" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C209" s="3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D209" s="3" t="s">
-        <v>21</v>
+        <v>12</v>
+      </c>
+      <c r="E209" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3191,13 +3826,16 @@
         <v>44245</v>
       </c>
       <c r="B210" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C210" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D210" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E210" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3205,13 +3843,16 @@
         <v>44243</v>
       </c>
       <c r="B211" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C211" s="3" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D211" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E211" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3219,13 +3860,16 @@
         <v>44245</v>
       </c>
       <c r="B212" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C212" s="3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D212" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E212" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3233,13 +3877,16 @@
         <v>44244</v>
       </c>
       <c r="B213" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C213" s="3" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D213" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E213" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3247,13 +3894,16 @@
         <v>44244</v>
       </c>
       <c r="B214" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C214" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D214" s="3" t="s">
-        <v>32</v>
+        <v>25</v>
+      </c>
+      <c r="E214" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3261,13 +3911,16 @@
         <v>44245</v>
       </c>
       <c r="B215" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C215" s="3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D215" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E215" s="3" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3275,13 +3928,16 @@
         <v>44245</v>
       </c>
       <c r="B216" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C216" s="3" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D216" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E216" s="3" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3289,13 +3945,16 @@
         <v>44244</v>
       </c>
       <c r="B217" s="3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C217" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D217" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
+      </c>
+      <c r="E217" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3303,13 +3962,16 @@
         <v>44245</v>
       </c>
       <c r="B218" s="3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C218" s="3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D218" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E218" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3317,13 +3979,16 @@
         <v>44245</v>
       </c>
       <c r="B219" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C219" s="3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D219" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E219" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3331,13 +3996,16 @@
         <v>44244</v>
       </c>
       <c r="B220" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C220" s="3" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D220" s="3" t="s">
-        <v>19</v>
+        <v>22</v>
+      </c>
+      <c r="E220" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3345,13 +4013,16 @@
         <v>44246</v>
       </c>
       <c r="B221" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C221" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D221" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E221" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3359,12 +4030,15 @@
         <v>44244</v>
       </c>
       <c r="B222" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C222" s="3" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D222" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E222" s="3" t="s">
         <v>12</v>
       </c>
     </row>
@@ -3373,13 +4047,16 @@
         <v>44245</v>
       </c>
       <c r="B223" s="3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C223" s="3" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D223" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E223" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3387,13 +4064,16 @@
         <v>44244</v>
       </c>
       <c r="B224" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C224" s="3" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D224" s="3" t="s">
-        <v>21</v>
+        <v>12</v>
+      </c>
+      <c r="E224" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3401,13 +4081,16 @@
         <v>44245</v>
       </c>
       <c r="B225" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C225" s="3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D225" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E225" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3415,13 +4098,16 @@
         <v>44249</v>
       </c>
       <c r="B226" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C226" s="3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D226" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
+      </c>
+      <c r="E226" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3429,13 +4115,16 @@
         <v>44246</v>
       </c>
       <c r="B227" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C227" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D227" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E227" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3443,13 +4132,16 @@
         <v>44245</v>
       </c>
       <c r="B228" s="3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C228" s="3" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D228" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
+      </c>
+      <c r="E228" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3457,13 +4149,16 @@
         <v>44245</v>
       </c>
       <c r="B229" s="3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C229" s="3" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D229" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
+      </c>
+      <c r="E229" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3471,13 +4166,16 @@
         <v>44249</v>
       </c>
       <c r="B230" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C230" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D230" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E230" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3485,13 +4183,16 @@
         <v>44246</v>
       </c>
       <c r="B231" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C231" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D231" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E231" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3499,13 +4200,16 @@
         <v>44244</v>
       </c>
       <c r="B232" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C232" s="3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D232" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E232" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3513,13 +4217,16 @@
         <v>44244</v>
       </c>
       <c r="B233" s="3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C233" s="3" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D233" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
+      </c>
+      <c r="E233" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3527,13 +4234,16 @@
         <v>44245</v>
       </c>
       <c r="B234" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C234" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D234" s="3" t="s">
-        <v>18</v>
+        <v>8</v>
+      </c>
+      <c r="E234" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3541,13 +4251,16 @@
         <v>44244</v>
       </c>
       <c r="B235" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C235" s="3" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D235" s="3" t="s">
-        <v>19</v>
+        <v>22</v>
+      </c>
+      <c r="E235" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3555,13 +4268,16 @@
         <v>44245</v>
       </c>
       <c r="B236" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C236" s="3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D236" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E236" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3569,13 +4285,16 @@
         <v>44246</v>
       </c>
       <c r="B237" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C237" s="3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D237" s="3" t="s">
-        <v>12</v>
+        <v>15</v>
+      </c>
+      <c r="E237" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3583,13 +4302,16 @@
         <v>44246</v>
       </c>
       <c r="B238" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C238" s="3" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D238" s="3" t="s">
-        <v>12</v>
+        <v>15</v>
+      </c>
+      <c r="E238" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3597,13 +4319,16 @@
         <v>44246</v>
       </c>
       <c r="B239" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C239" s="3" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D239" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E239" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3611,13 +4336,16 @@
         <v>44246</v>
       </c>
       <c r="B240" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C240" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D240" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
+      </c>
+      <c r="E240" s="3" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3625,13 +4353,16 @@
         <v>44249</v>
       </c>
       <c r="B241" s="3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C241" s="3" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D241" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E241" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="242" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3639,13 +4370,16 @@
         <v>44245</v>
       </c>
       <c r="B242" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C242" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D242" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E242" s="3" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3653,13 +4387,16 @@
         <v>44246</v>
       </c>
       <c r="B243" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C243" s="3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D243" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
+      </c>
+      <c r="E243" s="3" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="244" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3667,13 +4404,16 @@
         <v>44245</v>
       </c>
       <c r="B244" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C244" s="3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D244" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
+      </c>
+      <c r="E244" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="245" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3681,13 +4421,16 @@
         <v>44246</v>
       </c>
       <c r="B245" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C245" s="3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D245" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E245" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="246" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3695,13 +4438,16 @@
         <v>44249</v>
       </c>
       <c r="B246" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C246" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D246" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E246" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="247" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3709,13 +4455,16 @@
         <v>44245</v>
       </c>
       <c r="B247" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C247" s="3" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D247" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E247" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="248" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3723,13 +4472,16 @@
         <v>44252</v>
       </c>
       <c r="B248" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C248" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D248" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E248" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="249" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3737,13 +4489,16 @@
         <v>44246</v>
       </c>
       <c r="B249" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C249" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D249" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
+      </c>
+      <c r="E249" s="3" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="250" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3751,13 +4506,16 @@
         <v>44246</v>
       </c>
       <c r="B250" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C250" s="3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D250" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E250" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="251" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3765,13 +4523,16 @@
         <v>44246</v>
       </c>
       <c r="B251" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C251" s="3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D251" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E251" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="252" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3779,13 +4540,16 @@
         <v>44246</v>
       </c>
       <c r="B252" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C252" s="3" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D252" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E252" s="3" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="253" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3793,13 +4557,16 @@
         <v>44250</v>
       </c>
       <c r="B253" s="3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C253" s="3" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D253" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E253" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="254" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3807,13 +4574,16 @@
         <v>44250</v>
       </c>
       <c r="B254" s="3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C254" s="3" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D254" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E254" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="255" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3821,13 +4591,16 @@
         <v>44251</v>
       </c>
       <c r="B255" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C255" s="3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D255" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E255" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="256" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3835,13 +4608,16 @@
         <v>44246</v>
       </c>
       <c r="B256" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C256" s="3" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D256" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E256" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="257" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3849,13 +4625,16 @@
         <v>44246</v>
       </c>
       <c r="B257" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C257" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D257" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E257" s="3" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="258" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3863,13 +4642,16 @@
         <v>44246</v>
       </c>
       <c r="B258" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C258" s="3" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D258" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E258" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="259" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3877,13 +4659,16 @@
         <v>44249</v>
       </c>
       <c r="B259" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C259" s="3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D259" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E259" s="3" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="260" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3891,13 +4676,16 @@
         <v>44252</v>
       </c>
       <c r="B260" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C260" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D260" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E260" s="3" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="261" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3905,13 +4693,16 @@
         <v>44252</v>
       </c>
       <c r="B261" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C261" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D261" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E261" s="3" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="262" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3919,13 +4710,16 @@
         <v>44250</v>
       </c>
       <c r="B262" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C262" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D262" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
+      </c>
+      <c r="E262" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="263" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3933,13 +4727,16 @@
         <v>44252</v>
       </c>
       <c r="B263" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C263" s="3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D263" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E263" s="3" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="264" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3947,13 +4744,16 @@
         <v>44251</v>
       </c>
       <c r="B264" s="3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C264" s="3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D264" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E264" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="265" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3961,13 +4761,16 @@
         <v>44251</v>
       </c>
       <c r="B265" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C265" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D265" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E265" s="3" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="266" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3975,13 +4778,16 @@
         <v>44252</v>
       </c>
       <c r="B266" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C266" s="3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D266" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E266" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="267" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3989,13 +4795,16 @@
         <v>44251</v>
       </c>
       <c r="B267" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C267" s="3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D267" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E267" s="3" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="268" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4003,13 +4812,16 @@
         <v>44251</v>
       </c>
       <c r="B268" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C268" s="3" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D268" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
+      </c>
+      <c r="E268" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="269" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4017,13 +4829,16 @@
         <v>44251</v>
       </c>
       <c r="B269" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C269" s="3" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D269" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E269" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="270" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4031,13 +4846,16 @@
         <v>44250</v>
       </c>
       <c r="B270" s="3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C270" s="3" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D270" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E270" s="3" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="271" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4045,13 +4863,16 @@
         <v>44251</v>
       </c>
       <c r="B271" s="3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C271" s="3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D271" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E271" s="3" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="272" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4059,13 +4880,16 @@
         <v>44249</v>
       </c>
       <c r="B272" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C272" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D272" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E272" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="273" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4073,12 +4897,15 @@
         <v>44250</v>
       </c>
       <c r="B273" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C273" s="3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D273" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E273" s="3" t="s">
         <v>8</v>
       </c>
     </row>
@@ -4087,13 +4914,16 @@
         <v>44249</v>
       </c>
       <c r="B274" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C274" s="3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D274" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E274" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="275" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4101,13 +4931,16 @@
         <v>44250</v>
       </c>
       <c r="B275" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C275" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D275" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E275" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="276" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4115,13 +4948,16 @@
         <v>44251</v>
       </c>
       <c r="B276" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C276" s="3" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D276" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E276" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="277" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4129,13 +4965,16 @@
         <v>44251</v>
       </c>
       <c r="B277" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C277" s="3" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D277" s="3" t="s">
-        <v>19</v>
+        <v>22</v>
+      </c>
+      <c r="E277" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="278" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4143,13 +4982,16 @@
         <v>44250</v>
       </c>
       <c r="B278" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C278" s="3" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D278" s="3" t="s">
-        <v>21</v>
+        <v>12</v>
+      </c>
+      <c r="E278" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="279" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4157,13 +4999,16 @@
         <v>44252</v>
       </c>
       <c r="B279" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C279" s="3" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D279" s="3" t="s">
-        <v>32</v>
+        <v>25</v>
+      </c>
+      <c r="E279" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="280" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4171,13 +5016,16 @@
         <v>44250</v>
       </c>
       <c r="B280" s="3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C280" s="3" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D280" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
+      </c>
+      <c r="E280" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="281" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4185,12 +5033,15 @@
         <v>44251</v>
       </c>
       <c r="B281" s="3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C281" s="3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D281" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E281" s="3" t="s">
         <v>8</v>
       </c>
     </row>
@@ -4199,13 +5050,16 @@
         <v>44251</v>
       </c>
       <c r="B282" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C282" s="3" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D282" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E282" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="283" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4213,13 +5067,16 @@
         <v>44252</v>
       </c>
       <c r="B283" s="3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C283" s="3" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D283" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E283" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="284" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4227,13 +5084,16 @@
         <v>44251</v>
       </c>
       <c r="B284" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C284" s="3" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D284" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E284" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="285" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4241,13 +5101,16 @@
         <v>44250</v>
       </c>
       <c r="B285" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C285" s="3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D285" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
+      </c>
+      <c r="E285" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="286" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4255,13 +5118,16 @@
         <v>44251</v>
       </c>
       <c r="B286" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C286" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D286" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E286" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="287" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4269,13 +5135,16 @@
         <v>44253</v>
       </c>
       <c r="B287" s="3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C287" s="3" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D287" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E287" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="288" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4283,13 +5152,16 @@
         <v>44250</v>
       </c>
       <c r="B288" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C288" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D288" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E288" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="289" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4297,13 +5169,16 @@
         <v>44252</v>
       </c>
       <c r="B289" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C289" s="3" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D289" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E289" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="290" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4311,13 +5186,16 @@
         <v>44252</v>
       </c>
       <c r="B290" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C290" s="3" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D290" s="3" t="s">
-        <v>18</v>
+        <v>8</v>
+      </c>
+      <c r="E290" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="291" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4325,13 +5203,16 @@
         <v>44253</v>
       </c>
       <c r="B291" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C291" s="3" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D291" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E291" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="292" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4339,13 +5220,16 @@
         <v>44251</v>
       </c>
       <c r="B292" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C292" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D292" s="3" t="s">
-        <v>12</v>
+        <v>15</v>
+      </c>
+      <c r="E292" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="293" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4353,13 +5237,16 @@
         <v>44253</v>
       </c>
       <c r="B293" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C293" s="3" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D293" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
+      </c>
+      <c r="E293" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="294" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4367,13 +5254,16 @@
         <v>44252</v>
       </c>
       <c r="B294" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C294" s="3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D294" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E294" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="295" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4381,13 +5271,16 @@
         <v>44252</v>
       </c>
       <c r="B295" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C295" s="3" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D295" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E295" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="296" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4395,13 +5288,16 @@
         <v>44253</v>
       </c>
       <c r="B296" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C296" s="3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D296" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E296" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="297" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4409,13 +5305,16 @@
         <v>44253</v>
       </c>
       <c r="B297" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C297" s="3" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D297" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E297" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="298" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4423,13 +5322,16 @@
         <v>44253</v>
       </c>
       <c r="B298" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C298" s="3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D298" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E298" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="299" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4437,13 +5339,16 @@
         <v>44253</v>
       </c>
       <c r="B299" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C299" s="3" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D299" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
+      </c>
+      <c r="E299" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="300" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4451,13 +5356,16 @@
         <v>44253</v>
       </c>
       <c r="B300" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C300" s="3" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D300" s="3" t="s">
-        <v>12</v>
+        <v>15</v>
+      </c>
+      <c r="E300" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="301" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4465,13 +5373,16 @@
         <v>44252</v>
       </c>
       <c r="B301" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C301" s="3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D301" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E301" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="302" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4479,13 +5390,16 @@
         <v>44253</v>
       </c>
       <c r="B302" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C302" s="3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D302" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E302" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="303" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4493,13 +5407,16 @@
         <v>44253</v>
       </c>
       <c r="B303" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C303" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D303" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E303" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="304" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4507,13 +5424,16 @@
         <v>44253</v>
       </c>
       <c r="B304" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C304" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D304" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E304" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="305" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4521,13 +5441,16 @@
         <v>44252</v>
       </c>
       <c r="B305" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C305" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D305" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E305" s="3" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="306" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4535,13 +5458,16 @@
         <v>44253</v>
       </c>
       <c r="B306" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C306" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D306" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E306" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="307" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4549,13 +5475,16 @@
         <v>44249</v>
       </c>
       <c r="B307" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C307" s="3" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D307" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E307" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="308" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4563,13 +5492,16 @@
         <v>44253</v>
       </c>
       <c r="B308" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C308" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D308" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E308" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="309" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4577,13 +5509,16 @@
         <v>44253</v>
       </c>
       <c r="B309" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C309" s="3" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D309" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E309" s="3" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="310" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4591,13 +5526,16 @@
         <v>44253</v>
       </c>
       <c r="B310" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C310" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D310" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E310" s="3" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="311" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4605,13 +5543,16 @@
         <v>44253</v>
       </c>
       <c r="B311" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C311" s="3" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D311" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E311" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="312" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4619,13 +5560,16 @@
         <v>44253</v>
       </c>
       <c r="B312" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C312" s="3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D312" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E312" s="3" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="313" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4633,13 +5577,16 @@
         <v>44228</v>
       </c>
       <c r="B313" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C313" s="3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D313" s="3" t="s">
-        <v>21</v>
+        <v>12</v>
+      </c>
+      <c r="E313" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="314" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4647,13 +5594,16 @@
         <v>44228</v>
       </c>
       <c r="B314" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C314" s="3" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D314" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E314" s="3" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="315" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4661,13 +5611,16 @@
         <v>44229</v>
       </c>
       <c r="B315" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C315" s="3" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D315" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E315" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="316" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4675,13 +5628,16 @@
         <v>44229</v>
       </c>
       <c r="B316" s="3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C316" s="3" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D316" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E316" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="317" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4689,13 +5645,16 @@
         <v>44235</v>
       </c>
       <c r="B317" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C317" s="3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D317" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E317" s="3" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="318" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4703,12 +5662,15 @@
         <v>44235</v>
       </c>
       <c r="B318" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C318" s="3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D318" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E318" s="3" t="s">
         <v>8</v>
       </c>
     </row>
@@ -4717,13 +5679,16 @@
         <v>44242</v>
       </c>
       <c r="B319" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C319" s="3" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D319" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E319" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="320" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4731,13 +5696,16 @@
         <v>44237</v>
       </c>
       <c r="B320" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C320" s="3" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D320" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E320" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="321" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4745,13 +5713,16 @@
         <v>44242</v>
       </c>
       <c r="B321" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C321" s="3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D321" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E321" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="322" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4759,13 +5730,16 @@
         <v>44242</v>
       </c>
       <c r="B322" s="3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C322" s="3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D322" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E322" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="323" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4773,13 +5747,16 @@
         <v>44242</v>
       </c>
       <c r="B323" s="3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C323" s="3" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D323" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
+      </c>
+      <c r="E323" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="324" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4787,13 +5764,16 @@
         <v>44242</v>
       </c>
       <c r="B324" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C324" s="3" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D324" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E324" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="325" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4801,13 +5781,16 @@
         <v>44243</v>
       </c>
       <c r="B325" s="3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C325" s="3" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D325" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E325" s="3" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="326" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4815,13 +5798,16 @@
         <v>44244</v>
       </c>
       <c r="B326" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C326" s="3" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D326" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E326" s="3" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="327" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4829,13 +5815,16 @@
         <v>44245</v>
       </c>
       <c r="B327" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C327" s="3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D327" s="3" t="s">
-        <v>12</v>
+        <v>15</v>
+      </c>
+      <c r="E327" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="328" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4843,13 +5832,16 @@
         <v>44249</v>
       </c>
       <c r="B328" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C328" s="3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D328" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E328" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="329" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4857,13 +5849,16 @@
         <v>44251</v>
       </c>
       <c r="B329" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C329" s="3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D329" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E329" s="3" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="330" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4871,13 +5866,16 @@
         <v>44250</v>
       </c>
       <c r="B330" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C330" s="3" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D330" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E330" s="3" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="331" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4885,13 +5883,16 @@
         <v>44250</v>
       </c>
       <c r="B331" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C331" s="3" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D331" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E331" s="3" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="332" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4899,12 +5900,15 @@
         <v>44252</v>
       </c>
       <c r="B332" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C332" s="3" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D332" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E332" s="3" t="s">
         <v>12</v>
       </c>
     </row>
@@ -4913,13 +5917,16 @@
         <v>44228</v>
       </c>
       <c r="B333" s="3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C333" s="3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D333" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E333" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="334" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4927,13 +5934,16 @@
         <v>44236</v>
       </c>
       <c r="B334" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C334" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C334" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="D334" s="3" t="s">
-        <v>21</v>
+        <v>12</v>
+      </c>
+      <c r="E334" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="335" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4941,13 +5951,16 @@
         <v>44246</v>
       </c>
       <c r="B335" s="3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C335" s="3" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D335" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
+      </c>
+      <c r="E335" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="336" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4955,13 +5968,16 @@
         <v>44246</v>
       </c>
       <c r="B336" s="3" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C336" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D336" s="3" t="s">
-        <v>12</v>
+        <v>15</v>
+      </c>
+      <c r="E336" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="337" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4969,13 +5985,16 @@
         <v>44249</v>
       </c>
       <c r="B337" s="3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C337" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D337" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E337" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="338" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4983,13 +6002,16 @@
         <v>44252</v>
       </c>
       <c r="B338" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C338" s="3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D338" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E338" s="3" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="339" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4997,13 +6019,16 @@
         <v>44228</v>
       </c>
       <c r="B339" s="3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C339" s="3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D339" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E339" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="340" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5011,13 +6036,16 @@
         <v>44228</v>
       </c>
       <c r="B340" s="3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C340" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D340" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E340" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="341" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5025,13 +6053,16 @@
         <v>44228</v>
       </c>
       <c r="B341" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C341" s="3" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D341" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E341" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="342" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5039,13 +6070,16 @@
         <v>44228</v>
       </c>
       <c r="B342" s="3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C342" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D342" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E342" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="343" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5053,13 +6087,16 @@
         <v>44228</v>
       </c>
       <c r="B343" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C343" s="3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D343" s="3" t="s">
-        <v>32</v>
+        <v>25</v>
+      </c>
+      <c r="E343" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="344" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5067,13 +6104,16 @@
         <v>44229</v>
       </c>
       <c r="B344" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C344" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D344" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E344" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="345" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5081,13 +6121,16 @@
         <v>44228</v>
       </c>
       <c r="B345" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C345" s="3" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D345" s="3" t="s">
-        <v>19</v>
+        <v>22</v>
+      </c>
+      <c r="E345" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="346" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5095,13 +6138,16 @@
         <v>44228</v>
       </c>
       <c r="B346" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C346" s="3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D346" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
+      </c>
+      <c r="E346" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="347" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5109,13 +6155,16 @@
         <v>44229</v>
       </c>
       <c r="B347" s="3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C347" s="3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D347" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E347" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="348" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5123,13 +6172,16 @@
         <v>44229</v>
       </c>
       <c r="B348" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C348" s="3" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D348" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E348" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="349" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5137,13 +6189,16 @@
         <v>44229</v>
       </c>
       <c r="B349" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C349" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D349" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E349" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="350" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5151,13 +6206,16 @@
         <v>44230</v>
       </c>
       <c r="B350" s="3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C350" s="3" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D350" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
+      </c>
+      <c r="E350" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="351" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5165,13 +6223,16 @@
         <v>44230</v>
       </c>
       <c r="B351" s="3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C351" s="3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D351" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E351" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="352" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5179,12 +6240,15 @@
         <v>44230</v>
       </c>
       <c r="B352" s="3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C352" s="3" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D352" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E352" s="3" t="s">
         <v>8</v>
       </c>
     </row>
@@ -5193,13 +6257,16 @@
         <v>44230</v>
       </c>
       <c r="B353" s="3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C353" s="3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D353" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
+      </c>
+      <c r="E353" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="354" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5207,13 +6274,16 @@
         <v>44230</v>
       </c>
       <c r="B354" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C354" s="3" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D354" s="3" t="s">
-        <v>18</v>
+        <v>8</v>
+      </c>
+      <c r="E354" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="355" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5221,13 +6291,16 @@
         <v>44231</v>
       </c>
       <c r="B355" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C355" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D355" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E355" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="356" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5235,13 +6308,16 @@
         <v>44231</v>
       </c>
       <c r="B356" s="3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C356" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D356" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E356" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="357" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5249,13 +6325,16 @@
         <v>44232</v>
       </c>
       <c r="B357" s="3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C357" s="3" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D357" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
+      </c>
+      <c r="E357" s="3" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="358" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5263,13 +6342,16 @@
         <v>44232</v>
       </c>
       <c r="B358" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C358" s="3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D358" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
+      </c>
+      <c r="E358" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="359" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5277,13 +6359,16 @@
         <v>44231</v>
       </c>
       <c r="B359" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C359" s="3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D359" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E359" s="3" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="360" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5291,13 +6376,16 @@
         <v>44233</v>
       </c>
       <c r="B360" s="3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C360" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D360" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E360" s="3" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="361" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5305,13 +6393,16 @@
         <v>44232</v>
       </c>
       <c r="B361" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C361" s="3" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D361" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E361" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="362" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5319,13 +6410,16 @@
         <v>44235</v>
       </c>
       <c r="B362" s="3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C362" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D362" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E362" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="363" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5333,13 +6427,16 @@
         <v>44235</v>
       </c>
       <c r="B363" s="3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C363" s="3" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D363" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
+      </c>
+      <c r="E363" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="364" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5347,13 +6444,16 @@
         <v>44235</v>
       </c>
       <c r="B364" s="3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C364" s="3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D364" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E364" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="365" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5361,13 +6461,16 @@
         <v>44235</v>
       </c>
       <c r="B365" s="3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C365" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D365" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
+      </c>
+      <c r="E365" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="366" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5375,13 +6478,16 @@
         <v>44235</v>
       </c>
       <c r="B366" s="3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C366" s="3" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D366" s="3" t="s">
-        <v>21</v>
+        <v>12</v>
+      </c>
+      <c r="E366" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="367" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5389,13 +6495,16 @@
         <v>44235</v>
       </c>
       <c r="B367" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C367" s="3" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D367" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
+      </c>
+      <c r="E367" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="368" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5403,13 +6512,16 @@
         <v>44236</v>
       </c>
       <c r="B368" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C368" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D368" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
+      </c>
+      <c r="E368" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="369" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5417,13 +6529,16 @@
         <v>44237</v>
       </c>
       <c r="B369" s="3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C369" s="3" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D369" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
+      </c>
+      <c r="E369" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="370" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5431,13 +6546,16 @@
         <v>44238</v>
       </c>
       <c r="B370" s="3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C370" s="3" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D370" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E370" s="3" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="371" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5445,13 +6563,16 @@
         <v>44237</v>
       </c>
       <c r="B371" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C371" s="3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D371" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E371" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="372" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5459,13 +6580,16 @@
         <v>44237</v>
       </c>
       <c r="B372" s="3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C372" s="3" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D372" s="3" t="s">
-        <v>12</v>
+        <v>15</v>
+      </c>
+      <c r="E372" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="373" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5473,13 +6597,16 @@
         <v>44242</v>
       </c>
       <c r="B373" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C373" s="3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D373" s="3" t="s">
-        <v>21</v>
+        <v>12</v>
+      </c>
+      <c r="E373" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="374" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5487,12 +6614,15 @@
         <v>44237</v>
       </c>
       <c r="B374" s="3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C374" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D374" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E374" s="3" t="s">
         <v>12</v>
       </c>
     </row>
@@ -5501,13 +6631,16 @@
         <v>44238</v>
       </c>
       <c r="B375" s="3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C375" s="3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D375" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E375" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="376" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5515,13 +6648,16 @@
         <v>44238</v>
       </c>
       <c r="B376" s="3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C376" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D376" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E376" s="3" t="s">
         <v>22</v>
-      </c>
-      <c r="D376" s="3" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="377" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5529,13 +6665,16 @@
         <v>44238</v>
       </c>
       <c r="B377" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C377" s="3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D377" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E377" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="378" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5543,13 +6682,16 @@
         <v>44238</v>
       </c>
       <c r="B378" s="3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C378" s="3" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D378" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E378" s="3" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="379" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5557,13 +6699,16 @@
         <v>44239</v>
       </c>
       <c r="B379" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C379" s="3" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D379" s="3" t="s">
-        <v>18</v>
+        <v>8</v>
+      </c>
+      <c r="E379" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="380" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5571,13 +6716,16 @@
         <v>44242</v>
       </c>
       <c r="B380" s="3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C380" s="3" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D380" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E380" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="381" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5585,13 +6733,16 @@
         <v>44242</v>
       </c>
       <c r="B381" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C381" s="3" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D381" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
+      </c>
+      <c r="E381" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="382" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5599,13 +6750,16 @@
         <v>44239</v>
       </c>
       <c r="B382" s="3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C382" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D382" s="3" t="s">
-        <v>12</v>
+        <v>15</v>
+      </c>
+      <c r="E382" s="3" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="383" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5613,13 +6767,16 @@
         <v>44242</v>
       </c>
       <c r="B383" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C383" s="3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D383" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
+      </c>
+      <c r="E383" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="384" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5627,13 +6784,16 @@
         <v>44243</v>
       </c>
       <c r="B384" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C384" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D384" s="3" t="s">
-        <v>18</v>
+        <v>8</v>
+      </c>
+      <c r="E384" s="3" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="385" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5641,13 +6801,16 @@
         <v>44245</v>
       </c>
       <c r="B385" s="3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C385" s="3" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D385" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E385" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="386" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5655,13 +6818,16 @@
         <v>44249</v>
       </c>
       <c r="B386" s="3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C386" s="3" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D386" s="3" t="s">
-        <v>18</v>
+        <v>8</v>
+      </c>
+      <c r="E386" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="387" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5669,13 +6835,16 @@
         <v>44245</v>
       </c>
       <c r="B387" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C387" s="3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D387" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E387" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="388" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5683,13 +6852,16 @@
         <v>44244</v>
       </c>
       <c r="B388" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C388" s="3" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D388" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E388" s="3" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="389" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5697,13 +6869,16 @@
         <v>44242</v>
       </c>
       <c r="B389" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C389" s="3" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D389" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
+      </c>
+      <c r="E389" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="390" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5711,12 +6886,15 @@
         <v>44245</v>
       </c>
       <c r="B390" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C390" s="3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D390" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E390" s="3" t="s">
         <v>8</v>
       </c>
     </row>
@@ -5725,12 +6903,15 @@
         <v>44246</v>
       </c>
       <c r="B391" s="3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C391" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D391" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E391" s="3" t="s">
         <v>8</v>
       </c>
     </row>
@@ -5739,13 +6920,16 @@
         <v>44250</v>
       </c>
       <c r="B392" s="3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C392" s="3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D392" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
+      </c>
+      <c r="E392" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="393" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5753,13 +6937,16 @@
         <v>44249</v>
       </c>
       <c r="B393" s="3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C393" s="3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D393" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E393" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="394" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5767,13 +6954,16 @@
         <v>44249</v>
       </c>
       <c r="B394" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C394" s="3" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D394" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
+      </c>
+      <c r="E394" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="395" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5781,13 +6971,16 @@
         <v>44249</v>
       </c>
       <c r="B395" s="3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C395" s="3" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D395" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
+      </c>
+      <c r="E395" s="3" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="396" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5795,12 +6988,15 @@
         <v>44249</v>
       </c>
       <c r="B396" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C396" s="3" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D396" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E396" s="3" t="s">
         <v>8</v>
       </c>
     </row>
@@ -5809,13 +7005,16 @@
         <v>44249</v>
       </c>
       <c r="B397" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C397" s="3" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D397" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
+      </c>
+      <c r="E397" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="398" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5823,13 +7022,16 @@
         <v>44249</v>
       </c>
       <c r="B398" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C398" s="3" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D398" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
+      </c>
+      <c r="E398" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="399" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5837,13 +7039,16 @@
         <v>44249</v>
       </c>
       <c r="B399" s="3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C399" s="3" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D399" s="3" t="s">
-        <v>18</v>
+        <v>8</v>
+      </c>
+      <c r="E399" s="3" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="400" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5851,13 +7056,16 @@
         <v>44249</v>
       </c>
       <c r="B400" s="3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C400" s="3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D400" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
+      </c>
+      <c r="E400" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="401" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5865,13 +7073,16 @@
         <v>44244</v>
       </c>
       <c r="B401" s="3" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C401" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D401" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E401" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="402" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5879,13 +7090,16 @@
         <v>44249</v>
       </c>
       <c r="B402" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C402" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C402" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="D402" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E402" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="403" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5893,13 +7107,16 @@
         <v>44251</v>
       </c>
       <c r="B403" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C403" s="3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D403" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E403" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="404" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5907,13 +7124,16 @@
         <v>44252</v>
       </c>
       <c r="B404" s="3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C404" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D404" s="3" t="s">
-        <v>18</v>
+        <v>8</v>
+      </c>
+      <c r="E404" s="3" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="405" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5921,13 +7141,16 @@
         <v>44252</v>
       </c>
       <c r="B405" s="3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C405" s="3" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D405" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
+      </c>
+      <c r="E405" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="406" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5935,13 +7158,16 @@
         <v>44252</v>
       </c>
       <c r="B406" s="3" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C406" s="3" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D406" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E406" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="407" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5949,13 +7175,16 @@
         <v>44252</v>
       </c>
       <c r="B407" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C407" s="3" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D407" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
+      </c>
+      <c r="E407" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="408" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5963,13 +7192,16 @@
         <v>44253</v>
       </c>
       <c r="B408" s="3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C408" s="3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D408" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E408" s="3" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="409" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5977,13 +7209,16 @@
         <v>44251</v>
       </c>
       <c r="B409" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C409" s="3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D409" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E409" s="3" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="410" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5991,13 +7226,16 @@
         <v>44254</v>
       </c>
       <c r="B410" s="3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C410" s="3" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D410" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
+      </c>
+      <c r="E410" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="411" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6005,13 +7243,16 @@
         <v>44228</v>
       </c>
       <c r="B411" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C411" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D411" s="3" t="s">
-        <v>12</v>
+        <v>15</v>
+      </c>
+      <c r="E411" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="412" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6019,13 +7260,16 @@
         <v>44229</v>
       </c>
       <c r="B412" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C412" s="3" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D412" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E412" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="413" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6033,13 +7277,16 @@
         <v>44230</v>
       </c>
       <c r="B413" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C413" s="3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D413" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E413" s="3" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="414" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6047,13 +7294,16 @@
         <v>44235</v>
       </c>
       <c r="B414" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C414" s="3" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D414" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E414" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="415" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6061,13 +7311,16 @@
         <v>44235</v>
       </c>
       <c r="B415" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C415" s="3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D415" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E415" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="416" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6075,13 +7328,16 @@
         <v>44236</v>
       </c>
       <c r="B416" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C416" s="3" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D416" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E416" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="417" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6089,13 +7345,16 @@
         <v>44232</v>
       </c>
       <c r="B417" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C417" s="3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D417" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E417" s="3" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="418" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6103,13 +7362,16 @@
         <v>44237</v>
       </c>
       <c r="B418" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C418" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D418" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E418" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="419" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6117,13 +7379,16 @@
         <v>44244</v>
       </c>
       <c r="B419" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C419" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D419" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E419" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="420" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6131,13 +7396,16 @@
         <v>44244</v>
       </c>
       <c r="B420" s="3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C420" s="3" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D420" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E420" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="421" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6145,13 +7413,16 @@
         <v>44242</v>
       </c>
       <c r="B421" s="3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C421" s="3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D421" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
+      </c>
+      <c r="E421" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="422" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6159,13 +7430,16 @@
         <v>44242</v>
       </c>
       <c r="B422" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C422" s="3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D422" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E422" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="423" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6173,13 +7447,16 @@
         <v>44244</v>
       </c>
       <c r="B423" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C423" s="3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D423" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E423" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="424" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6187,13 +7464,16 @@
         <v>44244</v>
       </c>
       <c r="B424" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C424" s="3" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D424" s="3" t="s">
-        <v>18</v>
+        <v>8</v>
+      </c>
+      <c r="E424" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="425" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6201,13 +7481,16 @@
         <v>44244</v>
       </c>
       <c r="B425" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C425" s="3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D425" s="3" t="s">
-        <v>21</v>
+        <v>12</v>
+      </c>
+      <c r="E425" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="426" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6215,13 +7498,16 @@
         <v>44244</v>
       </c>
       <c r="B426" s="3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C426" s="3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D426" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E426" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="427" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6229,13 +7515,16 @@
         <v>44246</v>
       </c>
       <c r="B427" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C427" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D427" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E427" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="428" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6243,13 +7532,16 @@
         <v>44246</v>
       </c>
       <c r="B428" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C428" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D428" s="3" t="s">
-        <v>12</v>
+        <v>15</v>
+      </c>
+      <c r="E428" s="3" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="429" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6257,13 +7549,16 @@
         <v>44252</v>
       </c>
       <c r="B429" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C429" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D429" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E429" s="3" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="430" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6271,13 +7566,16 @@
         <v>44253</v>
       </c>
       <c r="B430" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C430" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D430" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E430" s="3" t="s">
         <v>16</v>
-      </c>
-      <c r="D430" s="3" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="431" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6285,12 +7583,15 @@
         <v>44251</v>
       </c>
       <c r="B431" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C431" s="3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D431" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E431" s="3" t="s">
         <v>12</v>
       </c>
     </row>
@@ -6299,13 +7600,16 @@
         <v>44252</v>
       </c>
       <c r="B432" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C432" s="3" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D432" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E432" s="3" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="433" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6313,13 +7617,16 @@
         <v>44252</v>
       </c>
       <c r="B433" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C433" s="3" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D433" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E433" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="434" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6327,13 +7634,16 @@
         <v>44252</v>
       </c>
       <c r="B434" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C434" s="3" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D434" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E434" s="3" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="435" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6341,13 +7651,16 @@
         <v>44252</v>
       </c>
       <c r="B435" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C435" s="3" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D435" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E435" s="3" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="436" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6355,13 +7668,16 @@
         <v>44252</v>
       </c>
       <c r="B436" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C436" s="3" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D436" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E436" s="3" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="437" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6369,13 +7685,16 @@
         <v>44252</v>
       </c>
       <c r="B437" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C437" s="3" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D437" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E437" s="3" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="438" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6383,13 +7702,16 @@
         <v>44252</v>
       </c>
       <c r="B438" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C438" s="3" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D438" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E438" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="439" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6397,13 +7719,16 @@
         <v>44252</v>
       </c>
       <c r="B439" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C439" s="3" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D439" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E439" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="440" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6411,13 +7736,16 @@
         <v>44252</v>
       </c>
       <c r="B440" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C440" s="3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D440" s="3" t="s">
-        <v>12</v>
+        <v>15</v>
+      </c>
+      <c r="E440" s="3" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="441" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6425,13 +7753,16 @@
         <v>44252</v>
       </c>
       <c r="B441" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C441" s="3" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D441" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E441" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="442" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6439,13 +7770,16 @@
         <v>44228</v>
       </c>
       <c r="B442" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C442" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D442" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E442" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="443" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6453,13 +7787,16 @@
         <v>44228</v>
       </c>
       <c r="B443" s="3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C443" s="3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D443" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E443" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="444" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6467,13 +7804,16 @@
         <v>44239</v>
       </c>
       <c r="B444" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C444" s="3" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D444" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E444" s="3" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="445" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6481,13 +7821,16 @@
         <v>44242</v>
       </c>
       <c r="B445" s="3" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C445" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D445" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E445" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="446" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6495,13 +7838,16 @@
         <v>44253</v>
       </c>
       <c r="B446" s="3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C446" s="3" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D446" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E446" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="447" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6509,13 +7855,16 @@
         <v>44228</v>
       </c>
       <c r="B447" s="3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C447" s="3" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D447" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E447" s="3" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="448" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6523,13 +7872,16 @@
         <v>44229</v>
       </c>
       <c r="B448" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C448" s="3" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D448" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E448" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="449" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6537,13 +7889,16 @@
         <v>44230</v>
       </c>
       <c r="B449" s="3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C449" s="3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D449" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E449" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="450" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6551,13 +7906,16 @@
         <v>44231</v>
       </c>
       <c r="B450" s="3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C450" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D450" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
+      </c>
+      <c r="E450" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="451" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6565,13 +7923,16 @@
         <v>44231</v>
       </c>
       <c r="B451" s="3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C451" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D451" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
+      </c>
+      <c r="E451" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="452" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6579,13 +7940,16 @@
         <v>44235</v>
       </c>
       <c r="B452" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C452" s="3" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D452" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E452" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="453" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6593,13 +7957,16 @@
         <v>44235</v>
       </c>
       <c r="B453" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C453" s="3" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D453" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E453" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="454" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6607,13 +7974,16 @@
         <v>44235</v>
       </c>
       <c r="B454" s="3" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C454" s="3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D454" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E454" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="455" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6621,13 +7991,16 @@
         <v>44236</v>
       </c>
       <c r="B455" s="3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C455" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D455" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E455" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="456" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6635,13 +8008,16 @@
         <v>44236</v>
       </c>
       <c r="B456" s="3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C456" s="3" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D456" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E456" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="457" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6649,13 +8025,16 @@
         <v>44238</v>
       </c>
       <c r="B457" s="3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C457" s="3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D457" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E457" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="458" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6663,13 +8042,16 @@
         <v>44238</v>
       </c>
       <c r="B458" s="3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C458" s="3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D458" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E458" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="459" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6677,13 +8059,16 @@
         <v>44242</v>
       </c>
       <c r="B459" s="3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C459" s="3" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D459" s="3" t="s">
-        <v>18</v>
+        <v>8</v>
+      </c>
+      <c r="E459" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="460" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6691,13 +8076,16 @@
         <v>44240</v>
       </c>
       <c r="B460" s="3" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C460" s="3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D460" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E460" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="461" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6705,13 +8093,16 @@
         <v>44242</v>
       </c>
       <c r="B461" s="3" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C461" s="3" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D461" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E461" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="462" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6719,13 +8110,16 @@
         <v>44243</v>
       </c>
       <c r="B462" s="3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C462" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D462" s="3" t="s">
-        <v>12</v>
+        <v>15</v>
+      </c>
+      <c r="E462" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="463" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6733,13 +8127,16 @@
         <v>44246</v>
       </c>
       <c r="B463" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C463" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C463" s="3" t="s">
-        <v>28</v>
-      </c>
       <c r="D463" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E463" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="464" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6747,13 +8144,16 @@
         <v>44249</v>
       </c>
       <c r="B464" s="3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C464" s="3" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D464" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E464" s="3" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="465" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6761,13 +8161,16 @@
         <v>44249</v>
       </c>
       <c r="B465" s="3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C465" s="3" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D465" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E465" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="466" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6775,13 +8178,16 @@
         <v>44246</v>
       </c>
       <c r="B466" s="3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C466" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D466" s="3" t="s">
-        <v>18</v>
+        <v>8</v>
+      </c>
+      <c r="E466" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="467" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6789,13 +8195,16 @@
         <v>44249</v>
       </c>
       <c r="B467" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C467" s="3" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D467" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
+      </c>
+      <c r="E467" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="468" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6803,13 +8212,16 @@
         <v>44249</v>
       </c>
       <c r="B468" s="3" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C468" s="3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D468" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
+      </c>
+      <c r="E468" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
